--- a/doctest_files/wrong1.xlsx
+++ b/doctest_files/wrong1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\.vscode\gitwork\histograms\doctest_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\.vscode\gitwork\histograms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Наименование</t>
   </si>
@@ -75,9 +75,6 @@
     <t>ДС Транспортировка и хранение, тыс. руб.</t>
   </si>
   <si>
-    <t>26272378.0</t>
-  </si>
-  <si>
     <t>19963824.0</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>10263705.0</t>
   </si>
   <si>
-    <t>ДС Оптовая и розничная торговля, тыс. руб.</t>
-  </si>
-  <si>
     <t>Y-3</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>Y-1</t>
+  </si>
+  <si>
+    <t>ДС  торговля, тыс. руб.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,42 +571,42 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:D5 B8:D8 B7:D7 B6" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:D5 B8:D8 B7:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>